--- a/SAP_UserAccess_Deletion/Data/Config.xlsx
+++ b/SAP_UserAccess_Deletion/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPath\Modifications\Access_Deletion_User21Feb\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPath\Modifications\SAP_UserAccess_Deletion\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FE1610-D52B-44E0-8A93-8C9FFF2B1751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63D792B-7440-4697-9F6C-D5056567491A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>SAPCredential</t>
   </si>
   <si>
-    <t>in_SAP_Quality_Credentials</t>
-  </si>
-  <si>
     <t>SubjectMandatoryErrorEmail</t>
   </si>
   <si>
@@ -298,6 +295,9 @@
   </si>
   <si>
     <t>SAP_AccessModificationsInputFile</t>
+  </si>
+  <si>
+    <t>SAP_AccessManagement_BOTUser</t>
   </si>
 </sst>
 </file>
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -736,95 +736,95 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1868,138 +1868,138 @@
     </row>
     <row r="2" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
         <v>46</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
         <v>49</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
         <v>52</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2982,7 +2982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E5ED7F-EBD9-4C52-8B73-88E2C632800A}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -3031,178 +3031,178 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
